--- a/CE 21 Project/bin/Debug/data/data.xlsx
+++ b/CE 21 Project/bin/Debug/data/data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Subject</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
   </si>
   <si>
     <t>CE 21</t>
@@ -441,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,153 +522,115 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>1234567</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>1830</v>
+        <v>1230</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1234567</v>
       </c>
       <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
       <c r="H4">
         <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>1230</v>
+        <v>1430</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4">
-        <v>1330</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1234567</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>1430</v>
+        <v>930</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L5">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>1234567</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>227</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>930</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6">
         <v>1030</v>
       </c>
     </row>

--- a/CE 21 Project/bin/Debug/data/data.xlsx
+++ b/CE 21 Project/bin/Debug/data/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="44">
   <si>
     <t>Subject</t>
   </si>
@@ -30,10 +30,7 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Contact No</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>ID No</t>
   </si>
   <si>
     <t>Building</t>
@@ -54,22 +51,58 @@
     <t>End Time</t>
   </si>
   <si>
+    <t>Lol</t>
+  </si>
+  <si>
+    <t>Castelo</t>
+  </si>
+  <si>
+    <t>Ar-j</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Covered</t>
+  </si>
+  <si>
+    <t>Courts</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PE 110</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
     <t>PS 101</t>
   </si>
   <si>
-    <t>Castelo</t>
-  </si>
-  <si>
-    <t>Ar-j</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
     <t>Faura</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>PE 101</t>
+  </si>
+  <si>
+    <t>Psy 333</t>
+  </si>
+  <si>
+    <t>SEC A</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
   <si>
     <t>CE 21</t>
@@ -84,22 +117,37 @@
     <t>ECCE</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>CTC</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Tiongson</t>
+  </si>
+  <si>
+    <t>Rico</t>
   </si>
   <si>
     <t>CE 00</t>
   </si>
   <si>
-    <t>Tiongson</t>
-  </si>
-  <si>
-    <t>Rico</t>
+    <t>Cramming 101</t>
+  </si>
+  <si>
+    <t>Villarin</t>
+  </si>
+  <si>
+    <t>Jett</t>
+  </si>
+  <si>
+    <t>Ateneo</t>
+  </si>
+  <si>
+    <t>EMPTY PROFESSOR</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -438,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,160 +526,985 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>206</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>1830</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2">
+        <v>1300</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="L2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>123456</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3">
+        <v>730</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>123456</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>1300</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>123456</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="G5">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>1830</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>123456</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>2145</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>123456</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>105</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>900</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>123456</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>1300</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>123456</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>900</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>123456</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>1300</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>123456</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>1930</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>123456</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>2145</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>123456</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>1300</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>123456</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>900</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
         <v>1234567</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>214</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>1230</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>1234567</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>214</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>1430</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>1234567</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>206</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>700</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1234567</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>206</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>700</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>1234567</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>227</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>930</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>1234567</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>206</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>700</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>1234567</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1234567</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>206</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>700</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>219</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>1230</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>1234567</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>1300</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23">
         <v>1330</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>1800</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1234567</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>219</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>1430</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="I25">
+        <v>1800</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I26">
+        <v>1800</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I27">
+        <v>1800</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>1234567</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
-        <v>227</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>930</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5">
-        <v>1030</v>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>1800</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/CE 21 Project/bin/Debug/data/data.xlsx
+++ b/CE 21 Project/bin/Debug/data/data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="10050"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
